--- a/output/cars_originanalysis.xlsx
+++ b/output/cars_originanalysis.xlsx
@@ -225,10 +225,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>512064</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>54610</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -268,10 +268,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>512064</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>54610</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -311,10 +311,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>512064</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>54610</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -354,10 +354,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>512064</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>54610</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -630,7 +630,7 @@
     <row r="33" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -664,7 +664,7 @@
     <row r="33" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/output/cars_originanalysis.xlsx
+++ b/output/cars_originanalysis.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
-  <si>
-    <t>The FREQ Procedure</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Origin</t>
   </si>
@@ -48,9 +45,6 @@
   </si>
   <si>
     <t>USA</t>
-  </si>
-  <si>
-    <t>The MEANS Procedure</t>
   </si>
   <si>
     <t>Analysis Variable : MPG_City MPG (City)</t>
@@ -166,12 +160,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom"/>
@@ -221,14 +212,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>512064</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -264,14 +255,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>512064</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -311,10 +302,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>512064</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -354,10 +345,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>512064</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -506,7 +497,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
     </sheetView>
@@ -520,85 +511,76 @@
     <col min="5" max="5" width="13.71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
+    <row r="1" ht="29" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" ht="12" customHeight="1"/>
-    <row r="3" ht="29" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    <row r="2" ht="14" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>158</v>
+      </c>
+      <c r="C2" s="6">
+        <v>36.92</v>
+      </c>
+      <c r="D2" s="5">
+        <v>158</v>
+      </c>
+      <c r="E2" s="6">
+        <v>36.92</v>
+      </c>
+    </row>
+    <row r="3" ht="14" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>123</v>
+      </c>
+      <c r="C3" s="6">
+        <v>28.74</v>
+      </c>
+      <c r="D3" s="5">
+        <v>281</v>
+      </c>
+      <c r="E3" s="6">
+        <v>65.65</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>158</v>
-      </c>
-      <c r="C4" s="7">
-        <v>36.92</v>
-      </c>
-      <c r="D4" s="6">
-        <v>158</v>
-      </c>
-      <c r="E4" s="7">
-        <v>36.92</v>
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6">
+        <v>34.35</v>
+      </c>
+      <c r="D4" s="5">
+        <v>428</v>
+      </c>
+      <c r="E4" s="6">
+        <v>100.00</v>
       </c>
     </row>
-    <row r="5" ht="14" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6">
-        <v>123</v>
-      </c>
-      <c r="C5" s="7">
-        <v>28.74</v>
-      </c>
-      <c r="D5" s="6">
-        <v>281</v>
-      </c>
-      <c r="E5" s="7">
-        <v>65.65</v>
-      </c>
-    </row>
-    <row r="6" ht="14" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6">
-        <v>147</v>
-      </c>
-      <c r="C6" s="7">
-        <v>34.35</v>
-      </c>
-      <c r="D6" s="6">
-        <v>428</v>
-      </c>
-      <c r="E6" s="7">
-        <v>100.00</v>
-      </c>
-    </row>
-    <row r="7" ht="12" customHeight="1"/>
+    <row r="5" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="1" fitToWidth="1" fitToHeight="1" scale="100" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -614,24 +596,15 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
+    <row r="31" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="1" fitToWidth="1" fitToHeight="1" scale="100" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -648,24 +621,15 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
+    <row r="31" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="1" fitToWidth="1" fitToHeight="1" scale="100" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -682,7 +646,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
     </sheetView>
@@ -699,118 +663,111 @@
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" ht="29" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="12" customHeight="1"/>
     <row r="3" ht="14" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>158</v>
+      </c>
+      <c r="C3" s="10">
+        <v>158</v>
+      </c>
+      <c r="D3" s="11">
+        <v>22.0126582</v>
+      </c>
+      <c r="E3" s="11">
+        <v>6.7333066</v>
+      </c>
+      <c r="F3" s="11">
+        <v>13.0000000</v>
+      </c>
+      <c r="G3" s="11">
+        <v>60.0000000</v>
+      </c>
     </row>
-    <row r="4" ht="29" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
+    <row r="4" ht="14" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>123</v>
+      </c>
+      <c r="C4" s="10">
+        <v>123</v>
+      </c>
+      <c r="D4" s="11">
+        <v>18.7317073</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3.2895093</v>
+      </c>
+      <c r="F4" s="11">
+        <v>12.0000000</v>
+      </c>
+      <c r="G4" s="11">
+        <v>38.0000000</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10">
-        <v>158</v>
-      </c>
-      <c r="C5" s="11">
-        <v>158</v>
-      </c>
-      <c r="D5" s="12">
-        <v>22.0126582</v>
-      </c>
-      <c r="E5" s="12">
-        <v>6.7333066</v>
-      </c>
-      <c r="F5" s="12">
-        <v>13.0000000</v>
-      </c>
-      <c r="G5" s="12">
-        <v>60.0000000</v>
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9">
+        <v>147</v>
+      </c>
+      <c r="C5" s="10">
+        <v>147</v>
+      </c>
+      <c r="D5" s="11">
+        <v>19.0748299</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3.9829920</v>
+      </c>
+      <c r="F5" s="11">
+        <v>10.0000000</v>
+      </c>
+      <c r="G5" s="11">
+        <v>29.0000000</v>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="10">
-        <v>123</v>
-      </c>
-      <c r="C6" s="11">
-        <v>123</v>
-      </c>
-      <c r="D6" s="12">
-        <v>18.7317073</v>
-      </c>
-      <c r="E6" s="12">
-        <v>3.2895093</v>
-      </c>
-      <c r="F6" s="12">
-        <v>12.0000000</v>
-      </c>
-      <c r="G6" s="12">
-        <v>38.0000000</v>
-      </c>
-    </row>
-    <row r="7" ht="14" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="10">
-        <v>147</v>
-      </c>
-      <c r="C7" s="11">
-        <v>147</v>
-      </c>
-      <c r="D7" s="12">
-        <v>19.0748299</v>
-      </c>
-      <c r="E7" s="12">
-        <v>3.9829920</v>
-      </c>
-      <c r="F7" s="12">
-        <v>10.0000000</v>
-      </c>
-      <c r="G7" s="12">
-        <v>29.0000000</v>
-      </c>
-    </row>
-    <row r="8" ht="12" customHeight="1"/>
+    <row r="6" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:G3"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
